--- a/季报汇总-2024-07-24.xlsx
+++ b/季报汇总-2024-07-24.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -911,7 +911,7 @@
     <row r="7" ht="14" customHeight="1">
       <c r="B7" s="34" t="inlineStr">
         <is>
-          <t>301062.SZ</t>
+          <t>688368.SH</t>
         </is>
       </c>
       <c r="C7" s="29">
@@ -928,7 +928,7 @@
       </c>
       <c r="F7" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润5050万元至5500万元;增长幅度为51.64%至65.15%;上年同期业绩:净利润3330.30万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-3294.81万元至-2867.71万元;增长幅度为63.09%至67.87%;上年同期业绩:净利润-8925.88万元;</t>
         </is>
       </c>
       <c r="G7" s="33">
@@ -939,7 +939,7 @@
     <row r="8" ht="14" customHeight="1">
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>300558.SZ</t>
+          <t>301062.SZ</t>
         </is>
       </c>
       <c r="C8" s="29">
@@ -956,7 +956,7 @@
       </c>
       <c r="F8" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润20762.88万元至23729.01万元;增长幅度为40.00%至60.00%;上年同期业绩:净利润14830.63万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润5050万元至5500万元;增长幅度为51.64%至65.15%;上年同期业绩:净利润3330.30万元;</t>
         </is>
       </c>
       <c r="G8" s="33">
@@ -967,7 +967,7 @@
     <row r="9" ht="14" customHeight="1">
       <c r="B9" s="34" t="inlineStr">
         <is>
-          <t>688279.SH</t>
+          <t>300558.SZ</t>
         </is>
       </c>
       <c r="C9" s="29">
@@ -984,7 +984,7 @@
       </c>
       <c r="F9" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润12202.07万元左右;增长幅度为46.68%左右;上年同期业绩:净利润8319.12万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润20762.88万元至23729.01万元;增长幅度为40.00%至60.00%;上年同期业绩:净利润14830.63万元;</t>
         </is>
       </c>
       <c r="G9" s="33">
@@ -995,7 +995,7 @@
     <row r="10" ht="14" customHeight="1">
       <c r="B10" s="34" t="inlineStr">
         <is>
-          <t>688630.SH</t>
+          <t>688279.SH</t>
         </is>
       </c>
       <c r="C10" s="29">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="F10" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润9888.05万元至10251.42万元;增长幅度为36.06%至41.06%;上年同期业绩:净利润7267.42万元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润12202.07万元左右;增长幅度为46.68%左右;上年同期业绩:净利润8319.12万元;</t>
         </is>
       </c>
       <c r="G10" s="33">
@@ -1023,7 +1023,7 @@
     <row r="11" ht="14" customHeight="1">
       <c r="B11" s="34" t="inlineStr">
         <is>
-          <t>688720.SH</t>
+          <t>688630.SH</t>
         </is>
       </c>
       <c r="C11" s="29">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F11" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1360.00万元左右;增长幅度为22.32%左右;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润9888.05万元至10251.42万元;增长幅度为36.06%至41.06%;上年同期业绩:净利润7267.42万元;</t>
         </is>
       </c>
       <c r="G11" s="33">
@@ -1048,8 +1048,62 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="14" customHeight="1"/>
-    <row r="13" ht="14" customHeight="1"/>
+    <row r="12" ht="14" customHeight="1">
+      <c r="B12" s="34" t="inlineStr">
+        <is>
+          <t>688720.SH</t>
+        </is>
+      </c>
+      <c r="C12" s="29">
+        <f t="array" ref="C12">[1]!s_info_name(B12)</f>
+        <v/>
+      </c>
+      <c r="D12" s="39">
+        <f t="array" ref="D12">[1]!s_info_industry_sw_2021(B12,"",1)</f>
+        <v/>
+      </c>
+      <c r="E12" s="31">
+        <f t="array" ref="E12">IF([1]!s_info_industry_sw_2021(B12,"",2)="消费电子",分工!$E$4,VLOOKUP(D12,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F12" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1360.00万元左右;增长幅度为22.32%左右;</t>
+        </is>
+      </c>
+      <c r="G12" s="33">
+        <f>IFERROR(VLOOKUP(C12,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1">
+      <c r="B13" s="34" t="inlineStr">
+        <is>
+          <t>300151.SZ</t>
+        </is>
+      </c>
+      <c r="C13" s="29">
+        <f t="array" ref="C13">[1]!s_info_name(B13)</f>
+        <v/>
+      </c>
+      <c r="D13" s="39">
+        <f t="array" ref="D13">[1]!s_info_industry_sw_2021(B13,"",1)</f>
+        <v/>
+      </c>
+      <c r="E13" s="31">
+        <f t="array" ref="E13">IF([1]!s_info_industry_sw_2021(B13,"",2)="消费电子",分工!$E$4,VLOOKUP(D13,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F13" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4600.00万元至5000.00万元;增长幅度为8.05%至17.45%;上年同期业绩:净利润4257.24万元;</t>
+        </is>
+      </c>
+      <c r="G13" s="33">
+        <f>IFERROR(VLOOKUP(C13,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="14" ht="14" customHeight="1"/>
     <row r="15" ht="14" customHeight="1"/>
     <row r="16" ht="14" customHeight="1"/>
